--- a/regions/11/jandacva da socialuri uzrunvelkofa/jandacva da socialuri uzrunvelkofa.xlsx
+++ b/regions/11/jandacva da socialuri uzrunvelkofa/jandacva da socialuri uzrunvelkofa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8101D32-DAB6-4EC6-806E-687FC9F0E371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1380" yWindow="75" windowWidth="13320" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>საავადმყოფო საწოლების რაოდენობა, ათასი</t>
   </si>
@@ -23,15 +24,6 @@
   </si>
   <si>
     <t>ამბულატორიულ-პოლიკლინიკურ დაწესებულებებში ექიმთან მიმართვების რიცხვი წლის განმავლობაში (პროფილაქტიკის ჩათვლით), ათასი</t>
-  </si>
-  <si>
-    <t>რეგისტრირებული ოჯახი, ერთეული</t>
-  </si>
-  <si>
-    <t>მიმღები ოჯახი, ერთეული</t>
-  </si>
-  <si>
-    <t>მიმღებთა რიცხოვნობა, კაცი</t>
   </si>
   <si>
     <t>ჯანმრთელობის დაცვა და სოციალური უზრუნველყოფა მცხეთა-მთიანეთს რეგიონში</t>
@@ -52,21 +44,6 @@
         <family val="1"/>
       </rPr>
       <t>(წლის ბოლოსათვის)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">პენსიის და სოციალური პაკეტის მიმღებთა რიცხოვნობა 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(წლის ბოლოს)</t>
     </r>
   </si>
   <si>
@@ -90,8 +67,30 @@
     </r>
   </si>
   <si>
+    <t>ექიმების რიცხოვნობა დაკავებული თანამდებობების მიხედვით, ათასი*</t>
+  </si>
+  <si>
+    <t>საექთნო პერსონალის რიცხოვნობა, ათასი*</t>
+  </si>
+  <si>
+    <t>*2012 წელს სამედიცინო კადრების დეფინიციები გადაიხედა და დაჯგუფდა პროფესიების საერთაშორისო სტანდარტული კლასიფიკატორის (ISCO–08) შესაბამისად. 
+2020 წლიდან, მონაცემები ექიმებისა და ექთნების რიცხოვნობის შესახებ ეფუძნება ჯანდაცვის მუშაკთა პერსონიფიცირებული აღრიცხვის ახალ სისტემას.</t>
+  </si>
+  <si>
+    <t>რეგისტრირებული ოჯახი</t>
+  </si>
+  <si>
+    <t>მიმღები ოჯახი</t>
+  </si>
+  <si>
+    <t>პენსიის მიმღებთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>სოციალური პაკეტის მიმღებთა რიცხოვნობა</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა 
+      <t xml:space="preserve">რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა მცხეთა-მთიანეთს რეგიონში
 </t>
     </r>
     <r>
@@ -101,29 +100,34 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t>(წლის ბოლოს)</t>
+      <t>(წლის ბოლოს, ერთეული)</t>
     </r>
   </si>
   <si>
-    <t>ექიმების რიცხოვნობა დაკავებული თანამდებობების მიხედვით, ათასი*</t>
-  </si>
-  <si>
-    <t>საექთნო პერსონალის რიცხოვნობა, ათასი*</t>
-  </si>
-  <si>
-    <t>*2012 წელს სამედიცინო კადრების დეფინიციები გადაიხედა და დაჯგუფდა პროფესიების საერთაშორისო სტანდარტული კლასიფიკატორის (ISCO–08) შესაბამისად. 
-2020 წლიდან, მონაცემები ექიმებისა და ექთნების რიცხოვნობის შესახებ ეფუძნება ჯანდაცვის მუშაკთა პერსონიფიცირებული აღრიცხვის ახალ სისტემას.</t>
+    <r>
+      <t xml:space="preserve">პენსიის და სოციალური პაკეტის მიმღებთა რიცხოვნობა მცხეთა-მთიანეთს რეგიონში
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(წლის ბოლოს, კაცი)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +219,12 @@
       <color rgb="FF000000"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -269,69 +279,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,16 +339,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,10 +354,17 @@
     <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,6 +455,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -487,6 +507,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,106 +699,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75.7109375" style="3" customWidth="1"/>
-    <col min="2" max="15" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2" max="15" width="9.140625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
         <v>2008</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>2009</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>2010</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>2011</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>2012</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>2013</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>2014</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>2015</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>2016</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>2017</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>2018</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>2019</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>2020</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="15">
+        <v>2022</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>0.316</v>
@@ -805,10 +845,16 @@
       <c r="O5" s="9">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>0.35399999999999998</v>
@@ -852,10 +898,16 @@
       <c r="O6" s="9">
         <v>0.377</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10">
         <v>6</v>
@@ -899,36 +951,42 @@
       <c r="O7" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>0.159</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>0.128</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>0.11175</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>0.09</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>0.105</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>0.11899999999999999</v>
       </c>
       <c r="K8" s="9">
@@ -946,8 +1004,14 @@
       <c r="O8" s="9">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -993,258 +1057,288 @@
       <c r="O9" s="10">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="P9" s="10">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="18">
         <v>105.301</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="18">
         <v>114.922</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="18">
         <v>121.68899999999999</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="18">
         <v>117.44499999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="18">
         <v>147.54</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="18">
         <v>157.50200000000001</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="18">
         <v>173.49600000000001</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="18">
         <v>174.221</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="18">
         <v>522.92999999999995</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>160.86000000000001</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <v>116.23</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <v>117.43300000000001</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="19">
         <v>114.09</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <v>102.27500000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="P10" s="19">
+        <v>95.748999999999995</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>101.709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <v>2008</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2011</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2012</v>
+      </c>
+      <c r="G15" s="15">
+        <v>2013</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2014</v>
+      </c>
+      <c r="I15" s="15">
+        <v>2015</v>
+      </c>
+      <c r="J15" s="15">
+        <v>2016</v>
+      </c>
+      <c r="K15" s="15">
+        <v>2017</v>
+      </c>
+      <c r="L15" s="15">
+        <v>2018</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2019</v>
+      </c>
+      <c r="N15" s="15">
+        <v>2020</v>
+      </c>
+      <c r="O15" s="15">
+        <v>2021</v>
+      </c>
+      <c r="P15" s="15">
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
+        <v>18865</v>
+      </c>
+      <c r="C16" s="12">
+        <v>20164</v>
+      </c>
+      <c r="D16" s="12">
+        <v>19208</v>
+      </c>
+      <c r="E16" s="12">
+        <v>16806</v>
+      </c>
+      <c r="F16" s="12">
+        <v>17467</v>
+      </c>
+      <c r="G16" s="12">
+        <v>18210</v>
+      </c>
+      <c r="H16" s="12">
+        <v>18209</v>
+      </c>
+      <c r="I16" s="12">
+        <v>16730</v>
+      </c>
+      <c r="J16" s="13">
+        <v>12724</v>
+      </c>
+      <c r="K16" s="13">
+        <v>11757</v>
+      </c>
+      <c r="L16" s="13">
+        <v>11190</v>
+      </c>
+      <c r="M16" s="13">
+        <v>10443</v>
+      </c>
+      <c r="N16" s="13">
+        <v>10907</v>
+      </c>
+      <c r="O16" s="27">
+        <v>11267</v>
+      </c>
+      <c r="P16" s="27">
+        <v>11485</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16">
-        <v>2008</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2009</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2010</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2011</v>
-      </c>
-      <c r="F15" s="16">
-        <v>2012</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2013</v>
-      </c>
-      <c r="H15" s="16">
-        <v>2014</v>
-      </c>
-      <c r="I15" s="16">
-        <v>2015</v>
-      </c>
-      <c r="J15" s="18">
-        <v>2016</v>
-      </c>
-      <c r="K15" s="18">
-        <v>2017</v>
-      </c>
-      <c r="L15" s="18">
-        <v>2018</v>
-      </c>
-      <c r="M15" s="18">
-        <v>2019</v>
-      </c>
-      <c r="N15" s="18">
-        <v>2020</v>
-      </c>
-      <c r="O15" s="18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="13">
-        <v>18865</v>
-      </c>
-      <c r="C16" s="13">
-        <v>20164</v>
-      </c>
-      <c r="D16" s="13">
-        <v>19208</v>
-      </c>
-      <c r="E16" s="13">
-        <v>16806</v>
-      </c>
-      <c r="F16" s="13">
-        <v>17467</v>
-      </c>
-      <c r="G16" s="13">
-        <v>18210</v>
-      </c>
-      <c r="H16" s="13">
-        <v>18209</v>
-      </c>
-      <c r="I16" s="13">
-        <v>16730</v>
-      </c>
-      <c r="J16" s="14">
-        <v>12724</v>
-      </c>
-      <c r="K16" s="14">
-        <v>11757</v>
-      </c>
-      <c r="L16" s="14">
-        <v>11190</v>
-      </c>
-      <c r="M16" s="14">
-        <v>10443</v>
-      </c>
-      <c r="N16" s="14">
-        <v>10907</v>
-      </c>
-      <c r="O16" s="35">
-        <v>11267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <v>7792</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>8654</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>7531</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>5578</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>7627</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>7058</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>6966</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <v>6060</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>5875</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <v>5282</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <v>4938</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>4106</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="19">
         <v>4994</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="28">
         <v>5582</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="28">
+        <v>3975</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1255,130 +1349,147 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16">
-        <v>2008</v>
-      </c>
-      <c r="C20" s="16">
-        <v>2009</v>
-      </c>
-      <c r="D20" s="16">
-        <v>2010</v>
-      </c>
-      <c r="E20" s="16">
-        <v>2011</v>
-      </c>
-      <c r="F20" s="16">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
         <v>2012</v>
       </c>
-      <c r="G20" s="16">
+      <c r="C20" s="15">
         <v>2013</v>
       </c>
-      <c r="H20" s="16">
+      <c r="D20" s="15">
         <v>2014</v>
       </c>
-      <c r="I20" s="16">
+      <c r="E20" s="15">
         <v>2015</v>
       </c>
-      <c r="J20" s="18">
+      <c r="F20" s="15">
         <v>2016</v>
       </c>
-      <c r="K20" s="18">
+      <c r="G20" s="15">
         <v>2017</v>
       </c>
-      <c r="L20" s="18">
+      <c r="H20" s="15">
         <v>2018</v>
       </c>
-      <c r="M20" s="18">
+      <c r="I20" s="15">
         <v>2019</v>
       </c>
-      <c r="N20" s="18">
+      <c r="J20" s="15">
         <v>2020</v>
       </c>
-      <c r="O20" s="18">
+      <c r="K20" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="23">
-        <v>21534</v>
-      </c>
-      <c r="C21" s="23">
-        <v>23023</v>
-      </c>
-      <c r="D21" s="23">
-        <v>22636</v>
-      </c>
-      <c r="E21" s="23">
-        <v>22136</v>
-      </c>
-      <c r="F21" s="23">
-        <v>22618</v>
-      </c>
-      <c r="G21" s="23">
-        <v>22491</v>
-      </c>
-      <c r="H21" s="23">
-        <v>22468</v>
-      </c>
-      <c r="I21" s="23">
-        <v>22401</v>
-      </c>
-      <c r="J21" s="24">
-        <v>22539</v>
-      </c>
-      <c r="K21" s="25">
-        <v>22593</v>
-      </c>
-      <c r="L21" s="25">
-        <v>22664</v>
-      </c>
-      <c r="M21" s="25">
-        <v>23242</v>
-      </c>
-      <c r="N21" s="25">
-        <v>23812</v>
-      </c>
-      <c r="O21" s="37">
-        <v>24025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="L20" s="15">
+        <v>2022</v>
+      </c>
+      <c r="M20" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="30">
+        <v>18637</v>
+      </c>
+      <c r="C21" s="30">
+        <v>18558</v>
+      </c>
+      <c r="D21" s="30">
+        <v>18552</v>
+      </c>
+      <c r="E21" s="30">
+        <v>18564</v>
+      </c>
+      <c r="F21" s="30">
+        <v>18709</v>
+      </c>
+      <c r="G21" s="30">
+        <v>18805</v>
+      </c>
+      <c r="H21" s="30">
+        <v>18921</v>
+      </c>
+      <c r="I21" s="30">
+        <v>19162</v>
+      </c>
+      <c r="J21" s="30">
+        <v>19655</v>
+      </c>
+      <c r="K21" s="30">
+        <v>19803</v>
+      </c>
+      <c r="L21" s="30">
+        <v>20040</v>
+      </c>
+      <c r="M21" s="30">
+        <v>20633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="31">
+        <v>3981</v>
+      </c>
+      <c r="C22" s="31">
+        <v>3933</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3916</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3837</v>
+      </c>
+      <c r="F22" s="31">
+        <v>3830</v>
+      </c>
+      <c r="G22" s="31">
+        <v>3788</v>
+      </c>
+      <c r="H22" s="31">
+        <v>3743</v>
+      </c>
+      <c r="I22" s="31">
+        <v>4080</v>
+      </c>
+      <c r="J22" s="31">
+        <v>4157</v>
+      </c>
+      <c r="K22" s="31">
+        <v>4222</v>
+      </c>
+      <c r="L22" s="31">
+        <v>4212</v>
+      </c>
+      <c r="M22" s="31">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
